--- a/历史成交记录.xlsx
+++ b/历史成交记录.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="214">
   <si>
     <t>symbol</t>
   </si>
@@ -358,6 +358,15 @@
     <t>BL931656409545873NT18OO</t>
   </si>
   <si>
+    <t>BL931656578432214KVJCNN</t>
+  </si>
+  <si>
+    <t>BL931656505709855ZFPZ7R</t>
+  </si>
+  <si>
+    <t>BL931656505688329EQDZNN</t>
+  </si>
+  <si>
     <t>BTC-USDT</t>
   </si>
   <si>
@@ -577,52 +586,40 @@
     <t>2022-06-28 17:45:45</t>
   </si>
   <si>
+    <t>2022-06-30 16:40:32</t>
+  </si>
+  <si>
+    <t>2022-06-29 20:28:29</t>
+  </si>
+  <si>
+    <t>2022-06-29 20:28:08</t>
+  </si>
+  <si>
     <t>sell</t>
   </si>
   <si>
     <t>buy</t>
   </si>
   <si>
-    <t>20200</t>
-  </si>
-  <si>
-    <t>20280</t>
-  </si>
-  <si>
-    <t>20275</t>
-  </si>
-  <si>
-    <t>20270</t>
-  </si>
-  <si>
-    <t>20804.53</t>
-  </si>
-  <si>
-    <t>20803.54</t>
-  </si>
-  <si>
-    <t>0.3</t>
-  </si>
-  <si>
-    <t>0.5</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>0.02</t>
-  </si>
-  <si>
-    <t>6060</t>
-  </si>
-  <si>
-    <t>10140</t>
-  </si>
-  <si>
-    <t>416.0906</t>
-  </si>
-  <si>
-    <t>416.0708</t>
+    <t>19000</t>
+  </si>
+  <si>
+    <t>19200</t>
+  </si>
+  <si>
+    <t>19500</t>
+  </si>
+  <si>
+    <t>0.8</t>
+  </si>
+  <si>
+    <t>15200</t>
+  </si>
+  <si>
+    <t>15360</t>
+  </si>
+  <si>
+    <t>15600</t>
   </si>
   <si>
     <t>order_sn</t>
@@ -1016,7 +1013,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N102"/>
+  <dimension ref="A1:N105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1068,16 +1065,16 @@
         <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D2">
         <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="F2">
         <v>21000</v>
@@ -1097,16 +1094,16 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C3" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="F3">
         <v>20200</v>
@@ -1126,16 +1123,16 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C4" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D4">
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="F4">
         <v>19388.68</v>
@@ -1155,16 +1152,16 @@
         <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C5" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D5">
         <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="F5">
         <v>19325.3</v>
@@ -1184,16 +1181,16 @@
         <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C6" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D6">
         <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="F6">
         <v>19358.68</v>
@@ -1208,10 +1205,10 @@
         <v>3</v>
       </c>
       <c r="M6" t="s">
+        <v>202</v>
+      </c>
+      <c r="N6" t="s">
         <v>203</v>
-      </c>
-      <c r="N6" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -1219,16 +1216,16 @@
         <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D7">
         <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="F7">
         <v>19418.68</v>
@@ -1246,7 +1243,7 @@
         <v>0</v>
       </c>
       <c r="N7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -1254,16 +1251,16 @@
         <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C8" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D8">
         <v>2</v>
       </c>
       <c r="E8" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="F8">
         <v>19388.68</v>
@@ -1281,7 +1278,7 @@
         <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -1289,16 +1286,16 @@
         <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C9" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D9">
         <v>2</v>
       </c>
       <c r="E9" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="F9">
         <v>19448.68</v>
@@ -1316,7 +1313,7 @@
         <v>2</v>
       </c>
       <c r="N9" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -1324,16 +1321,16 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C10" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D10">
         <v>2</v>
       </c>
       <c r="E10" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="F10">
         <v>19418.68</v>
@@ -1351,7 +1348,7 @@
         <v>3</v>
       </c>
       <c r="N10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -1359,16 +1356,16 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C11" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D11">
         <v>2</v>
       </c>
       <c r="E11" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="F11">
         <v>19358.68</v>
@@ -1386,7 +1383,7 @@
         <v>4</v>
       </c>
       <c r="N11" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -1394,16 +1391,16 @@
         <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C12" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D12">
         <v>2</v>
       </c>
       <c r="E12" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="F12">
         <v>19388.68</v>
@@ -1421,7 +1418,7 @@
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -1429,16 +1426,16 @@
         <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C13" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D13">
         <v>2</v>
       </c>
       <c r="E13" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="F13">
         <v>19326.65</v>
@@ -1456,7 +1453,7 @@
         <v>6</v>
       </c>
       <c r="N13" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -1464,16 +1461,16 @@
         <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C14" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D14">
         <v>2</v>
       </c>
       <c r="E14" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="F14">
         <v>19358.68</v>
@@ -1491,7 +1488,7 @@
         <v>7</v>
       </c>
       <c r="N14" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -1499,16 +1496,16 @@
         <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C15" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D15">
         <v>2</v>
       </c>
       <c r="E15" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="F15">
         <v>19418.68</v>
@@ -1526,7 +1523,7 @@
         <v>8</v>
       </c>
       <c r="N15" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -1534,16 +1531,16 @@
         <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C16" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D16">
         <v>2</v>
       </c>
       <c r="E16" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="F16">
         <v>19451.3</v>
@@ -1561,7 +1558,7 @@
         <v>9</v>
       </c>
       <c r="N16" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1569,16 +1566,16 @@
         <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C17" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D17">
         <v>2</v>
       </c>
       <c r="E17" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="F17">
         <v>19388.68</v>
@@ -1598,16 +1595,16 @@
         <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C18" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D18">
         <v>2</v>
       </c>
       <c r="E18" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="F18">
         <v>19418.68</v>
@@ -1627,16 +1624,16 @@
         <v>30</v>
       </c>
       <c r="B19" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C19" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D19">
         <v>2</v>
       </c>
       <c r="E19" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="F19">
         <v>19357.93</v>
@@ -1656,16 +1653,16 @@
         <v>31</v>
       </c>
       <c r="B20" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C20" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D20">
         <v>2</v>
       </c>
       <c r="E20" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="F20">
         <v>19387.93</v>
@@ -1685,16 +1682,16 @@
         <v>32</v>
       </c>
       <c r="B21" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C21" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D21">
         <v>2</v>
       </c>
       <c r="E21" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="F21">
         <v>19327.93</v>
@@ -1714,16 +1711,16 @@
         <v>33</v>
       </c>
       <c r="B22" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C22" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D22">
         <v>2</v>
       </c>
       <c r="E22" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="F22">
         <v>19387.22</v>
@@ -1743,16 +1740,16 @@
         <v>34</v>
       </c>
       <c r="B23" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C23" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D23">
         <v>2</v>
       </c>
       <c r="E23" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="F23">
         <v>19325.23</v>
@@ -1772,16 +1769,16 @@
         <v>35</v>
       </c>
       <c r="B24" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C24" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D24">
         <v>2</v>
       </c>
       <c r="E24" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="F24">
         <v>19357.22</v>
@@ -1801,16 +1798,16 @@
         <v>36</v>
       </c>
       <c r="B25" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C25" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D25">
         <v>2</v>
       </c>
       <c r="E25" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="F25">
         <v>19417.22</v>
@@ -1830,16 +1827,16 @@
         <v>37</v>
       </c>
       <c r="B26" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C26" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D26">
         <v>2</v>
       </c>
       <c r="E26" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="F26">
         <v>19387.22</v>
@@ -1859,16 +1856,16 @@
         <v>38</v>
       </c>
       <c r="B27" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C27" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D27">
         <v>2</v>
       </c>
       <c r="E27" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="F27">
         <v>19320.57</v>
@@ -1888,16 +1885,16 @@
         <v>39</v>
       </c>
       <c r="B28" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C28" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D28">
         <v>2</v>
       </c>
       <c r="E28" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="F28">
         <v>19350.57</v>
@@ -1917,16 +1914,16 @@
         <v>40</v>
       </c>
       <c r="B29" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C29" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D29">
         <v>2</v>
       </c>
       <c r="E29" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="F29">
         <v>19271.85</v>
@@ -1946,16 +1943,16 @@
         <v>41</v>
       </c>
       <c r="B30" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C30" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D30">
         <v>2</v>
       </c>
       <c r="E30" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="F30">
         <v>19320.57</v>
@@ -1975,16 +1972,16 @@
         <v>42</v>
       </c>
       <c r="B31" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C31" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D31">
         <v>2</v>
       </c>
       <c r="E31" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="F31">
         <v>19380.57</v>
@@ -2004,16 +2001,16 @@
         <v>43</v>
       </c>
       <c r="B32" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C32" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D32">
         <v>2</v>
       </c>
       <c r="E32" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="F32">
         <v>20600</v>
@@ -2033,16 +2030,16 @@
         <v>44</v>
       </c>
       <c r="B33" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C33" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D33">
         <v>2</v>
       </c>
       <c r="E33" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="F33">
         <v>20300</v>
@@ -2062,16 +2059,16 @@
         <v>45</v>
       </c>
       <c r="B34" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C34" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D34">
         <v>2</v>
       </c>
       <c r="E34" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="F34">
         <v>21000</v>
@@ -2091,16 +2088,16 @@
         <v>46</v>
       </c>
       <c r="B35" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C35" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D35">
         <v>2</v>
       </c>
       <c r="E35" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="F35">
         <v>20800</v>
@@ -2120,16 +2117,16 @@
         <v>47</v>
       </c>
       <c r="B36" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C36" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D36">
         <v>2</v>
       </c>
       <c r="E36" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="F36">
         <v>20049.08</v>
@@ -2149,16 +2146,16 @@
         <v>48</v>
       </c>
       <c r="B37" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C37" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D37">
         <v>2</v>
       </c>
       <c r="E37" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="F37">
         <v>19971.6</v>
@@ -2178,16 +2175,16 @@
         <v>49</v>
       </c>
       <c r="B38" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C38" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D38">
         <v>2</v>
       </c>
       <c r="E38" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="F38">
         <v>21200</v>
@@ -2207,16 +2204,16 @@
         <v>50</v>
       </c>
       <c r="B39" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C39" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D39">
         <v>2</v>
       </c>
       <c r="E39" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="F39">
         <v>20797.49</v>
@@ -2236,16 +2233,16 @@
         <v>51</v>
       </c>
       <c r="B40" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C40" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D40">
         <v>2</v>
       </c>
       <c r="E40" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="F40">
         <v>20647.49</v>
@@ -2265,16 +2262,16 @@
         <v>52</v>
       </c>
       <c r="B41" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C41" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D41">
         <v>2</v>
       </c>
       <c r="E41" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="F41">
         <v>20800.38</v>
@@ -2294,16 +2291,16 @@
         <v>53</v>
       </c>
       <c r="B42" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C42" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="D42">
         <v>2</v>
       </c>
       <c r="E42" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="F42">
         <v>20700.38</v>
@@ -2323,16 +2320,16 @@
         <v>54</v>
       </c>
       <c r="B43" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C43" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="D43">
         <v>2</v>
       </c>
       <c r="E43" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="F43">
         <v>20700.38</v>
@@ -2352,16 +2349,16 @@
         <v>55</v>
       </c>
       <c r="B44" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C44" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="D44">
         <v>2</v>
       </c>
       <c r="E44" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="F44">
         <v>20800.38</v>
@@ -2381,16 +2378,16 @@
         <v>56</v>
       </c>
       <c r="B45" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C45" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D45">
         <v>2</v>
       </c>
       <c r="E45" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="F45">
         <v>20716.1</v>
@@ -2410,16 +2407,16 @@
         <v>57</v>
       </c>
       <c r="B46" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C46" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D46">
         <v>2</v>
       </c>
       <c r="E46" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="F46">
         <v>20816.1</v>
@@ -2439,16 +2436,16 @@
         <v>58</v>
       </c>
       <c r="B47" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C47" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D47">
         <v>2</v>
       </c>
       <c r="E47" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="F47">
         <v>20716.1</v>
@@ -2468,16 +2465,16 @@
         <v>59</v>
       </c>
       <c r="B48" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C48" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D48">
         <v>2</v>
       </c>
       <c r="E48" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="F48">
         <v>20816.1</v>
@@ -2497,16 +2494,16 @@
         <v>60</v>
       </c>
       <c r="B49" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C49" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D49">
         <v>2</v>
       </c>
       <c r="E49" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="F49">
         <v>20784.61</v>
@@ -2526,16 +2523,16 @@
         <v>61</v>
       </c>
       <c r="B50" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C50" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D50">
         <v>2</v>
       </c>
       <c r="E50" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="F50">
         <v>20884.61</v>
@@ -2555,16 +2552,16 @@
         <v>62</v>
       </c>
       <c r="B51" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C51" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D51">
         <v>2</v>
       </c>
       <c r="E51" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="F51">
         <v>20855.26</v>
@@ -2584,16 +2581,16 @@
         <v>63</v>
       </c>
       <c r="B52" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C52" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D52">
         <v>2</v>
       </c>
       <c r="E52" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="F52">
         <v>20755.26</v>
@@ -2613,16 +2610,16 @@
         <v>64</v>
       </c>
       <c r="B53" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C53" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D53">
         <v>2</v>
       </c>
       <c r="E53" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="F53">
         <v>20815.02</v>
@@ -2642,16 +2639,16 @@
         <v>65</v>
       </c>
       <c r="B54" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C54" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D54">
         <v>2</v>
       </c>
       <c r="E54" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="F54">
         <v>20915.02</v>
@@ -2671,16 +2668,16 @@
         <v>66</v>
       </c>
       <c r="B55" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C55" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D55">
         <v>2</v>
       </c>
       <c r="E55" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="F55">
         <v>20854.41</v>
@@ -2700,16 +2697,16 @@
         <v>67</v>
       </c>
       <c r="B56" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C56" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D56">
         <v>2</v>
       </c>
       <c r="E56" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="F56">
         <v>20873.88</v>
@@ -2729,16 +2726,16 @@
         <v>68</v>
       </c>
       <c r="B57" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C57" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D57">
         <v>2</v>
       </c>
       <c r="E57" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="F57">
         <v>20773.88</v>
@@ -2758,16 +2755,16 @@
         <v>69</v>
       </c>
       <c r="B58" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C58" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D58">
         <v>2</v>
       </c>
       <c r="E58" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="F58">
         <v>20820.91</v>
@@ -2787,16 +2784,16 @@
         <v>70</v>
       </c>
       <c r="B59" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C59" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D59">
         <v>2</v>
       </c>
       <c r="E59" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="F59">
         <v>20620.91</v>
@@ -2816,16 +2813,16 @@
         <v>71</v>
       </c>
       <c r="B60" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C60" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="D60">
         <v>2</v>
       </c>
       <c r="E60" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="F60">
         <v>20939.75</v>
@@ -2845,16 +2842,16 @@
         <v>72</v>
       </c>
       <c r="B61" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C61" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="D61">
         <v>2</v>
       </c>
       <c r="E61" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="F61">
         <v>20939.75</v>
@@ -2874,16 +2871,16 @@
         <v>73</v>
       </c>
       <c r="B62" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C62" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="D62">
         <v>2</v>
       </c>
       <c r="E62" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="F62">
         <v>20839.75</v>
@@ -2903,16 +2900,16 @@
         <v>74</v>
       </c>
       <c r="B63" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C63" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D63">
         <v>2</v>
       </c>
       <c r="E63" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="F63">
         <v>20839.75</v>
@@ -2932,16 +2929,16 @@
         <v>75</v>
       </c>
       <c r="B64" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C64" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D64">
         <v>2</v>
       </c>
       <c r="E64" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="F64">
         <v>20904.04</v>
@@ -2961,16 +2958,16 @@
         <v>76</v>
       </c>
       <c r="B65" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C65" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D65">
         <v>2</v>
       </c>
       <c r="E65" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="F65">
         <v>20804.04</v>
@@ -2990,16 +2987,16 @@
         <v>77</v>
       </c>
       <c r="B66" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C66" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="D66">
         <v>2</v>
       </c>
       <c r="E66" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="F66">
         <v>20879.33</v>
@@ -3019,16 +3016,16 @@
         <v>78</v>
       </c>
       <c r="B67" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C67" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="D67">
         <v>2</v>
       </c>
       <c r="E67" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="F67">
         <v>20779.33</v>
@@ -3048,16 +3045,16 @@
         <v>79</v>
       </c>
       <c r="B68" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C68" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D68">
         <v>2</v>
       </c>
       <c r="E68" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="F68">
         <v>20856.8</v>
@@ -3077,16 +3074,16 @@
         <v>80</v>
       </c>
       <c r="B69" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C69" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D69">
         <v>2</v>
       </c>
       <c r="E69" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="F69">
         <v>21053.72</v>
@@ -3106,16 +3103,16 @@
         <v>81</v>
       </c>
       <c r="B70" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C70" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D70">
         <v>2</v>
       </c>
       <c r="E70" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="F70">
         <v>21051.2</v>
@@ -3135,16 +3132,16 @@
         <v>82</v>
       </c>
       <c r="B71" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C71" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D71">
         <v>2</v>
       </c>
       <c r="E71" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="F71">
         <v>21104.53</v>
@@ -3164,16 +3161,16 @@
         <v>83</v>
       </c>
       <c r="B72" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C72" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D72">
         <v>2</v>
       </c>
       <c r="E72" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="F72">
         <v>21103.54</v>
@@ -3193,16 +3190,16 @@
         <v>84</v>
       </c>
       <c r="B73" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C73" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D73">
         <v>2</v>
       </c>
       <c r="E73" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="F73">
         <v>21119.85</v>
@@ -3222,16 +3219,16 @@
         <v>85</v>
       </c>
       <c r="B74" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C74" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D74">
         <v>2</v>
       </c>
       <c r="E74" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="F74">
         <v>20919.85</v>
@@ -3251,16 +3248,16 @@
         <v>86</v>
       </c>
       <c r="B75" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C75" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D75">
         <v>2</v>
       </c>
       <c r="E75" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="F75">
         <v>20923.51</v>
@@ -3280,16 +3277,16 @@
         <v>87</v>
       </c>
       <c r="B76" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C76" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D76">
         <v>2</v>
       </c>
       <c r="E76" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="F76">
         <v>20973.51</v>
@@ -3309,16 +3306,16 @@
         <v>88</v>
       </c>
       <c r="B77" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C77" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D77">
         <v>2</v>
       </c>
       <c r="E77" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="F77">
         <v>21003.24</v>
@@ -3338,16 +3335,16 @@
         <v>89</v>
       </c>
       <c r="B78" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C78" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="D78">
         <v>2</v>
       </c>
       <c r="E78" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="F78">
         <v>21052.41</v>
@@ -3367,16 +3364,16 @@
         <v>90</v>
       </c>
       <c r="B79" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C79" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="D79">
         <v>2</v>
       </c>
       <c r="E79" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="F79">
         <v>21076.73</v>
@@ -3396,16 +3393,16 @@
         <v>91</v>
       </c>
       <c r="B80" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C80" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D80">
         <v>2</v>
       </c>
       <c r="E80" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="F80">
         <v>21077.66</v>
@@ -3425,16 +3422,16 @@
         <v>92</v>
       </c>
       <c r="B81" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C81" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="D81">
         <v>2</v>
       </c>
       <c r="E81" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="F81">
         <v>21109.37</v>
@@ -3454,16 +3451,16 @@
         <v>93</v>
       </c>
       <c r="B82" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C82" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="D82">
         <v>2</v>
       </c>
       <c r="E82" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="F82">
         <v>21159.37</v>
@@ -3483,16 +3480,16 @@
         <v>94</v>
       </c>
       <c r="B83" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C83" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D83">
         <v>2</v>
       </c>
       <c r="E83" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="F83">
         <v>21129.52</v>
@@ -3512,16 +3509,16 @@
         <v>95</v>
       </c>
       <c r="B84" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C84" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D84">
         <v>2</v>
       </c>
       <c r="E84" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="F84">
         <v>21129.52</v>
@@ -3541,16 +3538,16 @@
         <v>96</v>
       </c>
       <c r="B85" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C85" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D85">
         <v>2</v>
       </c>
       <c r="E85" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="F85">
         <v>21207.81</v>
@@ -3570,16 +3567,16 @@
         <v>97</v>
       </c>
       <c r="B86" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C86" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D86">
         <v>2</v>
       </c>
       <c r="E86" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="F86">
         <v>21107.81</v>
@@ -3599,16 +3596,16 @@
         <v>98</v>
       </c>
       <c r="B87" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C87" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="D87">
         <v>2</v>
       </c>
       <c r="E87" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="F87">
         <v>21180.84</v>
@@ -3628,16 +3625,16 @@
         <v>99</v>
       </c>
       <c r="B88" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C88" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="D88">
         <v>2</v>
       </c>
       <c r="E88" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="F88">
         <v>21080.84</v>
@@ -3657,16 +3654,16 @@
         <v>100</v>
       </c>
       <c r="B89" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C89" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D89">
         <v>2</v>
       </c>
       <c r="E89" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="F89">
         <v>21126.08</v>
@@ -3686,16 +3683,16 @@
         <v>101</v>
       </c>
       <c r="B90" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C90" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D90">
         <v>2</v>
       </c>
       <c r="E90" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="F90">
         <v>21026.08</v>
@@ -3715,16 +3712,16 @@
         <v>102</v>
       </c>
       <c r="B91" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C91" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D91">
         <v>2</v>
       </c>
       <c r="E91" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="F91">
         <v>21052.23</v>
@@ -3744,16 +3741,16 @@
         <v>103</v>
       </c>
       <c r="B92" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C92" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="D92">
         <v>2</v>
       </c>
       <c r="E92" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="F92">
         <v>21079.8</v>
@@ -3773,16 +3770,16 @@
         <v>104</v>
       </c>
       <c r="B93" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C93" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="D93">
         <v>2</v>
       </c>
       <c r="E93" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="F93">
         <v>21179.41</v>
@@ -3802,16 +3799,16 @@
         <v>105</v>
       </c>
       <c r="B94" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C94" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="D94">
         <v>2</v>
       </c>
       <c r="E94" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="F94">
         <v>20979.41</v>
@@ -3831,16 +3828,16 @@
         <v>106</v>
       </c>
       <c r="B95" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C95" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D95">
         <v>2</v>
       </c>
       <c r="E95" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="F95">
         <v>21131.29</v>
@@ -3860,16 +3857,16 @@
         <v>107</v>
       </c>
       <c r="B96" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C96" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D96">
         <v>2</v>
       </c>
       <c r="E96" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="F96">
         <v>20931.29</v>
@@ -3889,25 +3886,25 @@
         <v>108</v>
       </c>
       <c r="B97" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C97" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="D97">
         <v>2</v>
       </c>
       <c r="E97" t="s">
-        <v>188</v>
-      </c>
-      <c r="F97" t="s">
-        <v>189</v>
-      </c>
-      <c r="G97" t="s">
-        <v>195</v>
-      </c>
-      <c r="H97" t="s">
-        <v>199</v>
+        <v>194</v>
+      </c>
+      <c r="F97">
+        <v>20200</v>
+      </c>
+      <c r="G97">
+        <v>0.3</v>
+      </c>
+      <c r="H97">
+        <v>6060</v>
       </c>
       <c r="K97">
         <v>3</v>
@@ -3918,25 +3915,25 @@
         <v>109</v>
       </c>
       <c r="B98" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C98" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="D98">
         <v>2</v>
       </c>
       <c r="E98" t="s">
-        <v>188</v>
-      </c>
-      <c r="F98" t="s">
-        <v>190</v>
-      </c>
-      <c r="G98" t="s">
-        <v>196</v>
-      </c>
-      <c r="H98" t="s">
-        <v>200</v>
+        <v>194</v>
+      </c>
+      <c r="F98">
+        <v>20280</v>
+      </c>
+      <c r="G98">
+        <v>0.5</v>
+      </c>
+      <c r="H98">
+        <v>10140</v>
       </c>
       <c r="K98">
         <v>3</v>
@@ -3947,25 +3944,25 @@
         <v>110</v>
       </c>
       <c r="B99" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C99" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D99">
         <v>2</v>
       </c>
       <c r="E99" t="s">
-        <v>188</v>
-      </c>
-      <c r="F99" t="s">
-        <v>191</v>
-      </c>
-      <c r="G99" t="s">
-        <v>197</v>
-      </c>
-      <c r="H99" t="s">
-        <v>191</v>
+        <v>194</v>
+      </c>
+      <c r="F99">
+        <v>20275</v>
+      </c>
+      <c r="G99">
+        <v>1</v>
+      </c>
+      <c r="H99">
+        <v>20275</v>
       </c>
       <c r="K99">
         <v>3</v>
@@ -3976,25 +3973,25 @@
         <v>111</v>
       </c>
       <c r="B100" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C100" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="D100">
         <v>2</v>
       </c>
       <c r="E100" t="s">
-        <v>188</v>
-      </c>
-      <c r="F100" t="s">
-        <v>192</v>
-      </c>
-      <c r="G100" t="s">
-        <v>197</v>
-      </c>
-      <c r="H100" t="s">
-        <v>192</v>
+        <v>194</v>
+      </c>
+      <c r="F100">
+        <v>20270</v>
+      </c>
+      <c r="G100">
+        <v>1</v>
+      </c>
+      <c r="H100">
+        <v>20270</v>
       </c>
       <c r="K100">
         <v>3</v>
@@ -4005,25 +4002,25 @@
         <v>112</v>
       </c>
       <c r="B101" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C101" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D101">
         <v>2</v>
       </c>
       <c r="E101" t="s">
-        <v>188</v>
-      </c>
-      <c r="F101" t="s">
-        <v>193</v>
-      </c>
-      <c r="G101" t="s">
-        <v>198</v>
-      </c>
-      <c r="H101" t="s">
-        <v>201</v>
+        <v>194</v>
+      </c>
+      <c r="F101">
+        <v>20804.53</v>
+      </c>
+      <c r="G101">
+        <v>0.02</v>
+      </c>
+      <c r="H101">
+        <v>416.0906</v>
       </c>
       <c r="K101">
         <v>3</v>
@@ -4034,27 +4031,114 @@
         <v>113</v>
       </c>
       <c r="B102" t="s">
+        <v>117</v>
+      </c>
+      <c r="C102" t="s">
+        <v>189</v>
+      </c>
+      <c r="D102">
+        <v>2</v>
+      </c>
+      <c r="E102" t="s">
+        <v>194</v>
+      </c>
+      <c r="F102">
+        <v>20803.54</v>
+      </c>
+      <c r="G102">
+        <v>0.02</v>
+      </c>
+      <c r="H102">
+        <v>416.0708</v>
+      </c>
+      <c r="K102">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
+      <c r="A103" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C102" t="s">
-        <v>186</v>
-      </c>
-      <c r="D102">
-        <v>2</v>
-      </c>
-      <c r="E102" t="s">
-        <v>188</v>
-      </c>
-      <c r="F102" t="s">
-        <v>194</v>
-      </c>
-      <c r="G102" t="s">
+      <c r="B103" t="s">
+        <v>117</v>
+      </c>
+      <c r="C103" t="s">
+        <v>190</v>
+      </c>
+      <c r="D103">
+        <v>2</v>
+      </c>
+      <c r="E103" t="s">
+        <v>194</v>
+      </c>
+      <c r="F103" t="s">
+        <v>195</v>
+      </c>
+      <c r="G103" t="s">
         <v>198</v>
       </c>
-      <c r="H102" t="s">
-        <v>202</v>
-      </c>
-      <c r="K102">
+      <c r="H103" t="s">
+        <v>199</v>
+      </c>
+      <c r="K103">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
+      <c r="A104" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B104" t="s">
+        <v>117</v>
+      </c>
+      <c r="C104" t="s">
+        <v>191</v>
+      </c>
+      <c r="D104">
+        <v>2</v>
+      </c>
+      <c r="E104" t="s">
+        <v>194</v>
+      </c>
+      <c r="F104" t="s">
+        <v>196</v>
+      </c>
+      <c r="G104" t="s">
+        <v>198</v>
+      </c>
+      <c r="H104" t="s">
+        <v>200</v>
+      </c>
+      <c r="K104">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11">
+      <c r="A105" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B105" t="s">
+        <v>117</v>
+      </c>
+      <c r="C105" t="s">
+        <v>192</v>
+      </c>
+      <c r="D105">
+        <v>2</v>
+      </c>
+      <c r="E105" t="s">
+        <v>194</v>
+      </c>
+      <c r="F105" t="s">
+        <v>197</v>
+      </c>
+      <c r="G105" t="s">
+        <v>198</v>
+      </c>
+      <c r="H105" t="s">
+        <v>201</v>
+      </c>
+      <c r="K105">
         <v>3</v>
       </c>
     </row>

--- a/历史成交记录.xlsx
+++ b/历史成交记录.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="248">
   <si>
     <t>symbol</t>
   </si>
@@ -367,6 +367,36 @@
     <t>BL931656505688329EQDZNN</t>
   </si>
   <si>
+    <t>BL931656653729269J1ZF3R</t>
+  </si>
+  <si>
+    <t>BL931656636874976DC3X18</t>
+  </si>
+  <si>
+    <t>SL93165663322148000118G</t>
+  </si>
+  <si>
+    <t>SL931656582531802V12R93</t>
+  </si>
+  <si>
+    <t>SL931656571550306QLUOS2</t>
+  </si>
+  <si>
+    <t>SL931656571537054OK0UK7</t>
+  </si>
+  <si>
+    <t>SL931656570394130T9XNAY</t>
+  </si>
+  <si>
+    <t>SL9316565057443878HWXZY</t>
+  </si>
+  <si>
+    <t>SL9316565057280144KFLHW</t>
+  </si>
+  <si>
+    <t>SL931656462076831AIIXEO</t>
+  </si>
+  <si>
     <t>BTC-USDT</t>
   </si>
   <si>
@@ -595,31 +625,103 @@
     <t>2022-06-29 20:28:08</t>
   </si>
   <si>
+    <t>2022-07-01 13:35:29</t>
+  </si>
+  <si>
+    <t>2022-07-01 08:54:34</t>
+  </si>
+  <si>
+    <t>2022-07-01 07:53:41</t>
+  </si>
+  <si>
+    <t>2022-06-30 17:48:51</t>
+  </si>
+  <si>
+    <t>2022-06-30 14:45:50</t>
+  </si>
+  <si>
+    <t>2022-06-30 14:45:37</t>
+  </si>
+  <si>
+    <t>2022-06-30 14:26:34</t>
+  </si>
+  <si>
+    <t>2022-06-29 20:29:04</t>
+  </si>
+  <si>
+    <t>2022-06-29 20:28:48</t>
+  </si>
+  <si>
+    <t>2022-06-29 08:21:16</t>
+  </si>
+  <si>
     <t>sell</t>
   </si>
   <si>
     <t>buy</t>
   </si>
   <si>
-    <t>19000</t>
-  </si>
-  <si>
     <t>19200</t>
   </si>
   <si>
-    <t>19500</t>
+    <t>20000</t>
+  </si>
+  <si>
+    <t>19800</t>
+  </si>
+  <si>
+    <t>20300</t>
+  </si>
+  <si>
+    <t>20200</t>
+  </si>
+  <si>
+    <t>21000</t>
+  </si>
+  <si>
+    <t>20800</t>
+  </si>
+  <si>
+    <t>20600</t>
+  </si>
+  <si>
+    <t>0.5</t>
   </si>
   <si>
     <t>0.8</t>
   </si>
   <si>
-    <t>15200</t>
-  </si>
-  <si>
-    <t>15360</t>
-  </si>
-  <si>
-    <t>15600</t>
+    <t>0.4</t>
+  </si>
+  <si>
+    <t>0.3</t>
+  </si>
+  <si>
+    <t>9600</t>
+  </si>
+  <si>
+    <t>10000</t>
+  </si>
+  <si>
+    <t>15840</t>
+  </si>
+  <si>
+    <t>8120</t>
+  </si>
+  <si>
+    <t>8080</t>
+  </si>
+  <si>
+    <t>8400</t>
+  </si>
+  <si>
+    <t>6240</t>
+  </si>
+  <si>
+    <t>8240</t>
+  </si>
+  <si>
+    <t>6300</t>
   </si>
   <si>
     <t>order_sn</t>
@@ -1013,7 +1115,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N105"/>
+  <dimension ref="A1:N115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1065,16 +1167,16 @@
         <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="C2" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="D2">
         <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>193</v>
+        <v>213</v>
       </c>
       <c r="F2">
         <v>21000</v>
@@ -1094,16 +1196,16 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="C3" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="F3">
         <v>20200</v>
@@ -1123,16 +1225,16 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="C4" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="D4">
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>193</v>
+        <v>213</v>
       </c>
       <c r="F4">
         <v>19388.68</v>
@@ -1152,16 +1254,16 @@
         <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="C5" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="D5">
         <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="F5">
         <v>19325.3</v>
@@ -1181,16 +1283,16 @@
         <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="C6" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="D6">
         <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="F6">
         <v>19358.68</v>
@@ -1205,10 +1307,10 @@
         <v>3</v>
       </c>
       <c r="M6" t="s">
-        <v>202</v>
+        <v>236</v>
       </c>
       <c r="N6" t="s">
-        <v>203</v>
+        <v>237</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -1216,16 +1318,16 @@
         <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="C7" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="D7">
         <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>193</v>
+        <v>213</v>
       </c>
       <c r="F7">
         <v>19418.68</v>
@@ -1243,7 +1345,7 @@
         <v>0</v>
       </c>
       <c r="N7" t="s">
-        <v>204</v>
+        <v>238</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -1251,16 +1353,16 @@
         <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="C8" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="D8">
         <v>2</v>
       </c>
       <c r="E8" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="F8">
         <v>19388.68</v>
@@ -1278,7 +1380,7 @@
         <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>205</v>
+        <v>239</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -1286,16 +1388,16 @@
         <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="C9" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="D9">
         <v>2</v>
       </c>
       <c r="E9" t="s">
-        <v>193</v>
+        <v>213</v>
       </c>
       <c r="F9">
         <v>19448.68</v>
@@ -1313,7 +1415,7 @@
         <v>2</v>
       </c>
       <c r="N9" t="s">
-        <v>206</v>
+        <v>240</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -1321,16 +1423,16 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="C10" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="D10">
         <v>2</v>
       </c>
       <c r="E10" t="s">
-        <v>193</v>
+        <v>213</v>
       </c>
       <c r="F10">
         <v>19418.68</v>
@@ -1348,7 +1450,7 @@
         <v>3</v>
       </c>
       <c r="N10" t="s">
-        <v>207</v>
+        <v>241</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -1356,16 +1458,16 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="C11" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="D11">
         <v>2</v>
       </c>
       <c r="E11" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="F11">
         <v>19358.68</v>
@@ -1383,7 +1485,7 @@
         <v>4</v>
       </c>
       <c r="N11" t="s">
-        <v>208</v>
+        <v>242</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -1391,16 +1493,16 @@
         <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="C12" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="D12">
         <v>2</v>
       </c>
       <c r="E12" t="s">
-        <v>193</v>
+        <v>213</v>
       </c>
       <c r="F12">
         <v>19388.68</v>
@@ -1418,7 +1520,7 @@
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>209</v>
+        <v>243</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -1426,16 +1528,16 @@
         <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="C13" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="D13">
         <v>2</v>
       </c>
       <c r="E13" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="F13">
         <v>19326.65</v>
@@ -1453,7 +1555,7 @@
         <v>6</v>
       </c>
       <c r="N13" t="s">
-        <v>210</v>
+        <v>244</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -1461,16 +1563,16 @@
         <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="C14" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="D14">
         <v>2</v>
       </c>
       <c r="E14" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="F14">
         <v>19358.68</v>
@@ -1488,7 +1590,7 @@
         <v>7</v>
       </c>
       <c r="N14" t="s">
-        <v>211</v>
+        <v>245</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -1496,16 +1598,16 @@
         <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="C15" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="D15">
         <v>2</v>
       </c>
       <c r="E15" t="s">
-        <v>193</v>
+        <v>213</v>
       </c>
       <c r="F15">
         <v>19418.68</v>
@@ -1523,7 +1625,7 @@
         <v>8</v>
       </c>
       <c r="N15" t="s">
-        <v>212</v>
+        <v>246</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -1531,16 +1633,16 @@
         <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="C16" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="D16">
         <v>2</v>
       </c>
       <c r="E16" t="s">
-        <v>193</v>
+        <v>213</v>
       </c>
       <c r="F16">
         <v>19451.3</v>
@@ -1558,7 +1660,7 @@
         <v>9</v>
       </c>
       <c r="N16" t="s">
-        <v>213</v>
+        <v>247</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1566,16 +1668,16 @@
         <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="C17" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="D17">
         <v>2</v>
       </c>
       <c r="E17" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="F17">
         <v>19388.68</v>
@@ -1595,16 +1697,16 @@
         <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="C18" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="D18">
         <v>2</v>
       </c>
       <c r="E18" t="s">
-        <v>193</v>
+        <v>213</v>
       </c>
       <c r="F18">
         <v>19418.68</v>
@@ -1624,16 +1726,16 @@
         <v>30</v>
       </c>
       <c r="B19" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="C19" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="D19">
         <v>2</v>
       </c>
       <c r="E19" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="F19">
         <v>19357.93</v>
@@ -1653,16 +1755,16 @@
         <v>31</v>
       </c>
       <c r="B20" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="C20" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="D20">
         <v>2</v>
       </c>
       <c r="E20" t="s">
-        <v>193</v>
+        <v>213</v>
       </c>
       <c r="F20">
         <v>19387.93</v>
@@ -1682,16 +1784,16 @@
         <v>32</v>
       </c>
       <c r="B21" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="C21" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="D21">
         <v>2</v>
       </c>
       <c r="E21" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="F21">
         <v>19327.93</v>
@@ -1711,16 +1813,16 @@
         <v>33</v>
       </c>
       <c r="B22" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="C22" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="D22">
         <v>2</v>
       </c>
       <c r="E22" t="s">
-        <v>193</v>
+        <v>213</v>
       </c>
       <c r="F22">
         <v>19387.22</v>
@@ -1740,16 +1842,16 @@
         <v>34</v>
       </c>
       <c r="B23" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="C23" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="D23">
         <v>2</v>
       </c>
       <c r="E23" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="F23">
         <v>19325.23</v>
@@ -1769,16 +1871,16 @@
         <v>35</v>
       </c>
       <c r="B24" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="C24" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="D24">
         <v>2</v>
       </c>
       <c r="E24" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="F24">
         <v>19357.22</v>
@@ -1798,16 +1900,16 @@
         <v>36</v>
       </c>
       <c r="B25" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="C25" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="D25">
         <v>2</v>
       </c>
       <c r="E25" t="s">
-        <v>193</v>
+        <v>213</v>
       </c>
       <c r="F25">
         <v>19417.22</v>
@@ -1827,16 +1929,16 @@
         <v>37</v>
       </c>
       <c r="B26" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="C26" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="D26">
         <v>2</v>
       </c>
       <c r="E26" t="s">
-        <v>193</v>
+        <v>213</v>
       </c>
       <c r="F26">
         <v>19387.22</v>
@@ -1856,16 +1958,16 @@
         <v>38</v>
       </c>
       <c r="B27" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="C27" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="D27">
         <v>2</v>
       </c>
       <c r="E27" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="F27">
         <v>19320.57</v>
@@ -1885,16 +1987,16 @@
         <v>39</v>
       </c>
       <c r="B28" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="C28" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="D28">
         <v>2</v>
       </c>
       <c r="E28" t="s">
-        <v>193</v>
+        <v>213</v>
       </c>
       <c r="F28">
         <v>19350.57</v>
@@ -1914,16 +2016,16 @@
         <v>40</v>
       </c>
       <c r="B29" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="C29" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="D29">
         <v>2</v>
       </c>
       <c r="E29" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="F29">
         <v>19271.85</v>
@@ -1943,16 +2045,16 @@
         <v>41</v>
       </c>
       <c r="B30" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="C30" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="D30">
         <v>2</v>
       </c>
       <c r="E30" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="F30">
         <v>19320.57</v>
@@ -1972,16 +2074,16 @@
         <v>42</v>
       </c>
       <c r="B31" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="C31" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="D31">
         <v>2</v>
       </c>
       <c r="E31" t="s">
-        <v>193</v>
+        <v>213</v>
       </c>
       <c r="F31">
         <v>19380.57</v>
@@ -2001,16 +2103,16 @@
         <v>43</v>
       </c>
       <c r="B32" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="C32" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="D32">
         <v>2</v>
       </c>
       <c r="E32" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="F32">
         <v>20600</v>
@@ -2030,16 +2132,16 @@
         <v>44</v>
       </c>
       <c r="B33" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="C33" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="D33">
         <v>2</v>
       </c>
       <c r="E33" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="F33">
         <v>20300</v>
@@ -2059,16 +2161,16 @@
         <v>45</v>
       </c>
       <c r="B34" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="C34" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D34">
         <v>2</v>
       </c>
       <c r="E34" t="s">
-        <v>193</v>
+        <v>213</v>
       </c>
       <c r="F34">
         <v>21000</v>
@@ -2088,16 +2190,16 @@
         <v>46</v>
       </c>
       <c r="B35" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="C35" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="D35">
         <v>2</v>
       </c>
       <c r="E35" t="s">
-        <v>193</v>
+        <v>213</v>
       </c>
       <c r="F35">
         <v>20800</v>
@@ -2117,16 +2219,16 @@
         <v>47</v>
       </c>
       <c r="B36" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="C36" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="D36">
         <v>2</v>
       </c>
       <c r="E36" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="F36">
         <v>20049.08</v>
@@ -2146,16 +2248,16 @@
         <v>48</v>
       </c>
       <c r="B37" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="C37" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="D37">
         <v>2</v>
       </c>
       <c r="E37" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="F37">
         <v>19971.6</v>
@@ -2175,16 +2277,16 @@
         <v>49</v>
       </c>
       <c r="B38" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="C38" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="D38">
         <v>2</v>
       </c>
       <c r="E38" t="s">
-        <v>193</v>
+        <v>213</v>
       </c>
       <c r="F38">
         <v>21200</v>
@@ -2204,16 +2306,16 @@
         <v>50</v>
       </c>
       <c r="B39" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="C39" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="D39">
         <v>2</v>
       </c>
       <c r="E39" t="s">
-        <v>193</v>
+        <v>213</v>
       </c>
       <c r="F39">
         <v>20797.49</v>
@@ -2233,16 +2335,16 @@
         <v>51</v>
       </c>
       <c r="B40" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="C40" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="D40">
         <v>2</v>
       </c>
       <c r="E40" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="F40">
         <v>20647.49</v>
@@ -2262,16 +2364,16 @@
         <v>52</v>
       </c>
       <c r="B41" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="C41" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="D41">
         <v>2</v>
       </c>
       <c r="E41" t="s">
-        <v>193</v>
+        <v>213</v>
       </c>
       <c r="F41">
         <v>20800.38</v>
@@ -2291,16 +2393,16 @@
         <v>53</v>
       </c>
       <c r="B42" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="C42" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="D42">
         <v>2</v>
       </c>
       <c r="E42" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="F42">
         <v>20700.38</v>
@@ -2320,16 +2422,16 @@
         <v>54</v>
       </c>
       <c r="B43" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="C43" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="D43">
         <v>2</v>
       </c>
       <c r="E43" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="F43">
         <v>20700.38</v>
@@ -2349,16 +2451,16 @@
         <v>55</v>
       </c>
       <c r="B44" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="C44" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="D44">
         <v>2</v>
       </c>
       <c r="E44" t="s">
-        <v>193</v>
+        <v>213</v>
       </c>
       <c r="F44">
         <v>20800.38</v>
@@ -2378,16 +2480,16 @@
         <v>56</v>
       </c>
       <c r="B45" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="C45" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="D45">
         <v>2</v>
       </c>
       <c r="E45" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="F45">
         <v>20716.1</v>
@@ -2407,16 +2509,16 @@
         <v>57</v>
       </c>
       <c r="B46" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="C46" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="D46">
         <v>2</v>
       </c>
       <c r="E46" t="s">
-        <v>193</v>
+        <v>213</v>
       </c>
       <c r="F46">
         <v>20816.1</v>
@@ -2436,16 +2538,16 @@
         <v>58</v>
       </c>
       <c r="B47" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="C47" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="D47">
         <v>2</v>
       </c>
       <c r="E47" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="F47">
         <v>20716.1</v>
@@ -2465,16 +2567,16 @@
         <v>59</v>
       </c>
       <c r="B48" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="C48" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="D48">
         <v>2</v>
       </c>
       <c r="E48" t="s">
-        <v>193</v>
+        <v>213</v>
       </c>
       <c r="F48">
         <v>20816.1</v>
@@ -2494,16 +2596,16 @@
         <v>60</v>
       </c>
       <c r="B49" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="C49" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="D49">
         <v>2</v>
       </c>
       <c r="E49" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="F49">
         <v>20784.61</v>
@@ -2523,16 +2625,16 @@
         <v>61</v>
       </c>
       <c r="B50" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="C50" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="D50">
         <v>2</v>
       </c>
       <c r="E50" t="s">
-        <v>193</v>
+        <v>213</v>
       </c>
       <c r="F50">
         <v>20884.61</v>
@@ -2552,16 +2654,16 @@
         <v>62</v>
       </c>
       <c r="B51" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="C51" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="D51">
         <v>2</v>
       </c>
       <c r="E51" t="s">
-        <v>193</v>
+        <v>213</v>
       </c>
       <c r="F51">
         <v>20855.26</v>
@@ -2581,16 +2683,16 @@
         <v>63</v>
       </c>
       <c r="B52" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="C52" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="D52">
         <v>2</v>
       </c>
       <c r="E52" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="F52">
         <v>20755.26</v>
@@ -2610,16 +2712,16 @@
         <v>64</v>
       </c>
       <c r="B53" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="C53" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="D53">
         <v>2</v>
       </c>
       <c r="E53" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="F53">
         <v>20815.02</v>
@@ -2639,16 +2741,16 @@
         <v>65</v>
       </c>
       <c r="B54" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="C54" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="D54">
         <v>2</v>
       </c>
       <c r="E54" t="s">
-        <v>193</v>
+        <v>213</v>
       </c>
       <c r="F54">
         <v>20915.02</v>
@@ -2668,16 +2770,16 @@
         <v>66</v>
       </c>
       <c r="B55" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="C55" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="D55">
         <v>2</v>
       </c>
       <c r="E55" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="F55">
         <v>20854.41</v>
@@ -2697,16 +2799,16 @@
         <v>67</v>
       </c>
       <c r="B56" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="C56" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="D56">
         <v>2</v>
       </c>
       <c r="E56" t="s">
-        <v>193</v>
+        <v>213</v>
       </c>
       <c r="F56">
         <v>20873.88</v>
@@ -2726,16 +2828,16 @@
         <v>68</v>
       </c>
       <c r="B57" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="C57" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="D57">
         <v>2</v>
       </c>
       <c r="E57" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="F57">
         <v>20773.88</v>
@@ -2755,16 +2857,16 @@
         <v>69</v>
       </c>
       <c r="B58" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="C58" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="D58">
         <v>2</v>
       </c>
       <c r="E58" t="s">
-        <v>193</v>
+        <v>213</v>
       </c>
       <c r="F58">
         <v>20820.91</v>
@@ -2784,16 +2886,16 @@
         <v>70</v>
       </c>
       <c r="B59" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="C59" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="D59">
         <v>2</v>
       </c>
       <c r="E59" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="F59">
         <v>20620.91</v>
@@ -2813,16 +2915,16 @@
         <v>71</v>
       </c>
       <c r="B60" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="C60" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="D60">
         <v>2</v>
       </c>
       <c r="E60" t="s">
-        <v>193</v>
+        <v>213</v>
       </c>
       <c r="F60">
         <v>20939.75</v>
@@ -2842,16 +2944,16 @@
         <v>72</v>
       </c>
       <c r="B61" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="C61" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="D61">
         <v>2</v>
       </c>
       <c r="E61" t="s">
-        <v>193</v>
+        <v>213</v>
       </c>
       <c r="F61">
         <v>20939.75</v>
@@ -2871,16 +2973,16 @@
         <v>73</v>
       </c>
       <c r="B62" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="C62" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="D62">
         <v>2</v>
       </c>
       <c r="E62" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="F62">
         <v>20839.75</v>
@@ -2900,16 +3002,16 @@
         <v>74</v>
       </c>
       <c r="B63" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="C63" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="D63">
         <v>2</v>
       </c>
       <c r="E63" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="F63">
         <v>20839.75</v>
@@ -2929,16 +3031,16 @@
         <v>75</v>
       </c>
       <c r="B64" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="C64" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="D64">
         <v>2</v>
       </c>
       <c r="E64" t="s">
-        <v>193</v>
+        <v>213</v>
       </c>
       <c r="F64">
         <v>20904.04</v>
@@ -2958,16 +3060,16 @@
         <v>76</v>
       </c>
       <c r="B65" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="C65" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="D65">
         <v>2</v>
       </c>
       <c r="E65" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="F65">
         <v>20804.04</v>
@@ -2987,16 +3089,16 @@
         <v>77</v>
       </c>
       <c r="B66" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="C66" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="D66">
         <v>2</v>
       </c>
       <c r="E66" t="s">
-        <v>193</v>
+        <v>213</v>
       </c>
       <c r="F66">
         <v>20879.33</v>
@@ -3016,16 +3118,16 @@
         <v>78</v>
       </c>
       <c r="B67" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="C67" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="D67">
         <v>2</v>
       </c>
       <c r="E67" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="F67">
         <v>20779.33</v>
@@ -3045,16 +3147,16 @@
         <v>79</v>
       </c>
       <c r="B68" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="C68" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="D68">
         <v>2</v>
       </c>
       <c r="E68" t="s">
-        <v>193</v>
+        <v>213</v>
       </c>
       <c r="F68">
         <v>20856.8</v>
@@ -3074,16 +3176,16 @@
         <v>80</v>
       </c>
       <c r="B69" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="C69" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="D69">
         <v>2</v>
       </c>
       <c r="E69" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="F69">
         <v>21053.72</v>
@@ -3103,16 +3205,16 @@
         <v>81</v>
       </c>
       <c r="B70" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="C70" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="D70">
         <v>2</v>
       </c>
       <c r="E70" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="F70">
         <v>21051.2</v>
@@ -3132,16 +3234,16 @@
         <v>82</v>
       </c>
       <c r="B71" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="C71" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="D71">
         <v>2</v>
       </c>
       <c r="E71" t="s">
-        <v>193</v>
+        <v>213</v>
       </c>
       <c r="F71">
         <v>21104.53</v>
@@ -3161,16 +3263,16 @@
         <v>83</v>
       </c>
       <c r="B72" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="C72" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="D72">
         <v>2</v>
       </c>
       <c r="E72" t="s">
-        <v>193</v>
+        <v>213</v>
       </c>
       <c r="F72">
         <v>21103.54</v>
@@ -3190,16 +3292,16 @@
         <v>84</v>
       </c>
       <c r="B73" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="C73" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="D73">
         <v>2</v>
       </c>
       <c r="E73" t="s">
-        <v>193</v>
+        <v>213</v>
       </c>
       <c r="F73">
         <v>21119.85</v>
@@ -3219,16 +3321,16 @@
         <v>85</v>
       </c>
       <c r="B74" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="C74" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="D74">
         <v>2</v>
       </c>
       <c r="E74" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="F74">
         <v>20919.85</v>
@@ -3248,16 +3350,16 @@
         <v>86</v>
       </c>
       <c r="B75" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="C75" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="D75">
         <v>2</v>
       </c>
       <c r="E75" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="F75">
         <v>20923.51</v>
@@ -3277,16 +3379,16 @@
         <v>87</v>
       </c>
       <c r="B76" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="C76" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="D76">
         <v>2</v>
       </c>
       <c r="E76" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="F76">
         <v>20973.51</v>
@@ -3306,16 +3408,16 @@
         <v>88</v>
       </c>
       <c r="B77" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="C77" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="D77">
         <v>2</v>
       </c>
       <c r="E77" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="F77">
         <v>21003.24</v>
@@ -3335,16 +3437,16 @@
         <v>89</v>
       </c>
       <c r="B78" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="C78" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="D78">
         <v>2</v>
       </c>
       <c r="E78" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="F78">
         <v>21052.41</v>
@@ -3364,16 +3466,16 @@
         <v>90</v>
       </c>
       <c r="B79" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="C79" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="D79">
         <v>2</v>
       </c>
       <c r="E79" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="F79">
         <v>21076.73</v>
@@ -3393,16 +3495,16 @@
         <v>91</v>
       </c>
       <c r="B80" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="C80" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="D80">
         <v>2</v>
       </c>
       <c r="E80" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="F80">
         <v>21077.66</v>
@@ -3422,16 +3524,16 @@
         <v>92</v>
       </c>
       <c r="B81" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="C81" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="D81">
         <v>2</v>
       </c>
       <c r="E81" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="F81">
         <v>21109.37</v>
@@ -3451,16 +3553,16 @@
         <v>93</v>
       </c>
       <c r="B82" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="C82" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="D82">
         <v>2</v>
       </c>
       <c r="E82" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="F82">
         <v>21159.37</v>
@@ -3480,16 +3582,16 @@
         <v>94</v>
       </c>
       <c r="B83" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="C83" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="D83">
         <v>2</v>
       </c>
       <c r="E83" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="F83">
         <v>21129.52</v>
@@ -3509,16 +3611,16 @@
         <v>95</v>
       </c>
       <c r="B84" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="C84" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="D84">
         <v>2</v>
       </c>
       <c r="E84" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="F84">
         <v>21129.52</v>
@@ -3538,16 +3640,16 @@
         <v>96</v>
       </c>
       <c r="B85" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="C85" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="D85">
         <v>2</v>
       </c>
       <c r="E85" t="s">
-        <v>193</v>
+        <v>213</v>
       </c>
       <c r="F85">
         <v>21207.81</v>
@@ -3567,16 +3669,16 @@
         <v>97</v>
       </c>
       <c r="B86" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="C86" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="D86">
         <v>2</v>
       </c>
       <c r="E86" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="F86">
         <v>21107.81</v>
@@ -3596,16 +3698,16 @@
         <v>98</v>
       </c>
       <c r="B87" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="C87" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="D87">
         <v>2</v>
       </c>
       <c r="E87" t="s">
-        <v>193</v>
+        <v>213</v>
       </c>
       <c r="F87">
         <v>21180.84</v>
@@ -3625,16 +3727,16 @@
         <v>99</v>
       </c>
       <c r="B88" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="C88" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="D88">
         <v>2</v>
       </c>
       <c r="E88" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="F88">
         <v>21080.84</v>
@@ -3654,16 +3756,16 @@
         <v>100</v>
       </c>
       <c r="B89" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="C89" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="D89">
         <v>2</v>
       </c>
       <c r="E89" t="s">
-        <v>193</v>
+        <v>213</v>
       </c>
       <c r="F89">
         <v>21126.08</v>
@@ -3683,16 +3785,16 @@
         <v>101</v>
       </c>
       <c r="B90" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="C90" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="D90">
         <v>2</v>
       </c>
       <c r="E90" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="F90">
         <v>21026.08</v>
@@ -3712,16 +3814,16 @@
         <v>102</v>
       </c>
       <c r="B91" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="C91" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="D91">
         <v>2</v>
       </c>
       <c r="E91" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="F91">
         <v>21052.23</v>
@@ -3741,16 +3843,16 @@
         <v>103</v>
       </c>
       <c r="B92" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="C92" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="D92">
         <v>2</v>
       </c>
       <c r="E92" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="F92">
         <v>21079.8</v>
@@ -3770,16 +3872,16 @@
         <v>104</v>
       </c>
       <c r="B93" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="C93" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="D93">
         <v>2</v>
       </c>
       <c r="E93" t="s">
-        <v>193</v>
+        <v>213</v>
       </c>
       <c r="F93">
         <v>21179.41</v>
@@ -3799,16 +3901,16 @@
         <v>105</v>
       </c>
       <c r="B94" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="C94" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="D94">
         <v>2</v>
       </c>
       <c r="E94" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="F94">
         <v>20979.41</v>
@@ -3828,16 +3930,16 @@
         <v>106</v>
       </c>
       <c r="B95" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="C95" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="D95">
         <v>2</v>
       </c>
       <c r="E95" t="s">
-        <v>193</v>
+        <v>213</v>
       </c>
       <c r="F95">
         <v>21131.29</v>
@@ -3857,16 +3959,16 @@
         <v>107</v>
       </c>
       <c r="B96" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="C96" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="D96">
         <v>2</v>
       </c>
       <c r="E96" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="F96">
         <v>20931.29</v>
@@ -3886,16 +3988,16 @@
         <v>108</v>
       </c>
       <c r="B97" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="C97" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="D97">
         <v>2</v>
       </c>
       <c r="E97" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="F97">
         <v>20200</v>
@@ -3915,16 +4017,16 @@
         <v>109</v>
       </c>
       <c r="B98" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="C98" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="D98">
         <v>2</v>
       </c>
       <c r="E98" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="F98">
         <v>20280</v>
@@ -3944,16 +4046,16 @@
         <v>110</v>
       </c>
       <c r="B99" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="C99" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="D99">
         <v>2</v>
       </c>
       <c r="E99" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="F99">
         <v>20275</v>
@@ -3973,16 +4075,16 @@
         <v>111</v>
       </c>
       <c r="B100" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="C100" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="D100">
         <v>2</v>
       </c>
       <c r="E100" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="F100">
         <v>20270</v>
@@ -4002,16 +4104,16 @@
         <v>112</v>
       </c>
       <c r="B101" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="C101" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="D101">
         <v>2</v>
       </c>
       <c r="E101" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="F101">
         <v>20804.53</v>
@@ -4031,16 +4133,16 @@
         <v>113</v>
       </c>
       <c r="B102" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="C102" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="D102">
         <v>2</v>
       </c>
       <c r="E102" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="F102">
         <v>20803.54</v>
@@ -4060,25 +4162,25 @@
         <v>114</v>
       </c>
       <c r="B103" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="C103" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="D103">
         <v>2</v>
       </c>
       <c r="E103" t="s">
-        <v>194</v>
-      </c>
-      <c r="F103" t="s">
-        <v>195</v>
-      </c>
-      <c r="G103" t="s">
-        <v>198</v>
-      </c>
-      <c r="H103" t="s">
-        <v>199</v>
+        <v>214</v>
+      </c>
+      <c r="F103">
+        <v>19000</v>
+      </c>
+      <c r="G103">
+        <v>0.8</v>
+      </c>
+      <c r="H103">
+        <v>15200</v>
       </c>
       <c r="K103">
         <v>3</v>
@@ -4089,25 +4191,25 @@
         <v>115</v>
       </c>
       <c r="B104" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="C104" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="D104">
         <v>2</v>
       </c>
       <c r="E104" t="s">
-        <v>194</v>
-      </c>
-      <c r="F104" t="s">
-        <v>196</v>
-      </c>
-      <c r="G104" t="s">
-        <v>198</v>
-      </c>
-      <c r="H104" t="s">
-        <v>200</v>
+        <v>214</v>
+      </c>
+      <c r="F104">
+        <v>19200</v>
+      </c>
+      <c r="G104">
+        <v>0.8</v>
+      </c>
+      <c r="H104">
+        <v>15360</v>
       </c>
       <c r="K104">
         <v>6</v>
@@ -4118,28 +4220,318 @@
         <v>116</v>
       </c>
       <c r="B105" t="s">
+        <v>127</v>
+      </c>
+      <c r="C105" t="s">
+        <v>202</v>
+      </c>
+      <c r="D105">
+        <v>2</v>
+      </c>
+      <c r="E105" t="s">
+        <v>214</v>
+      </c>
+      <c r="F105">
+        <v>19500</v>
+      </c>
+      <c r="G105">
+        <v>0.8</v>
+      </c>
+      <c r="H105">
+        <v>15600</v>
+      </c>
+      <c r="K105">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11">
+      <c r="A106" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C105" t="s">
-        <v>192</v>
-      </c>
-      <c r="D105">
-        <v>2</v>
-      </c>
-      <c r="E105" t="s">
-        <v>194</v>
-      </c>
-      <c r="F105" t="s">
-        <v>197</v>
-      </c>
-      <c r="G105" t="s">
-        <v>198</v>
-      </c>
-      <c r="H105" t="s">
-        <v>201</v>
-      </c>
-      <c r="K105">
-        <v>3</v>
+      <c r="B106" t="s">
+        <v>127</v>
+      </c>
+      <c r="C106" t="s">
+        <v>203</v>
+      </c>
+      <c r="D106">
+        <v>2</v>
+      </c>
+      <c r="E106" t="s">
+        <v>214</v>
+      </c>
+      <c r="F106" t="s">
+        <v>215</v>
+      </c>
+      <c r="G106" t="s">
+        <v>223</v>
+      </c>
+      <c r="H106" t="s">
+        <v>227</v>
+      </c>
+      <c r="K106">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11">
+      <c r="A107" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B107" t="s">
+        <v>127</v>
+      </c>
+      <c r="C107" t="s">
+        <v>204</v>
+      </c>
+      <c r="D107">
+        <v>2</v>
+      </c>
+      <c r="E107" t="s">
+        <v>214</v>
+      </c>
+      <c r="F107" t="s">
+        <v>216</v>
+      </c>
+      <c r="G107" t="s">
+        <v>223</v>
+      </c>
+      <c r="H107" t="s">
+        <v>228</v>
+      </c>
+      <c r="K107">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11">
+      <c r="A108" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B108" t="s">
+        <v>127</v>
+      </c>
+      <c r="C108" t="s">
+        <v>205</v>
+      </c>
+      <c r="D108">
+        <v>2</v>
+      </c>
+      <c r="E108" t="s">
+        <v>213</v>
+      </c>
+      <c r="F108" t="s">
+        <v>216</v>
+      </c>
+      <c r="G108" t="s">
+        <v>223</v>
+      </c>
+      <c r="H108" t="s">
+        <v>228</v>
+      </c>
+      <c r="K108">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11">
+      <c r="A109" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B109" t="s">
+        <v>127</v>
+      </c>
+      <c r="C109" t="s">
+        <v>206</v>
+      </c>
+      <c r="D109">
+        <v>2</v>
+      </c>
+      <c r="E109" t="s">
+        <v>213</v>
+      </c>
+      <c r="F109" t="s">
+        <v>217</v>
+      </c>
+      <c r="G109" t="s">
+        <v>224</v>
+      </c>
+      <c r="H109" t="s">
+        <v>229</v>
+      </c>
+      <c r="K109">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11">
+      <c r="A110" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B110" t="s">
+        <v>127</v>
+      </c>
+      <c r="C110" t="s">
+        <v>207</v>
+      </c>
+      <c r="D110">
+        <v>2</v>
+      </c>
+      <c r="E110" t="s">
+        <v>213</v>
+      </c>
+      <c r="F110" t="s">
+        <v>218</v>
+      </c>
+      <c r="G110" t="s">
+        <v>225</v>
+      </c>
+      <c r="H110" t="s">
+        <v>230</v>
+      </c>
+      <c r="K110">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11">
+      <c r="A111" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B111" t="s">
+        <v>127</v>
+      </c>
+      <c r="C111" t="s">
+        <v>208</v>
+      </c>
+      <c r="D111">
+        <v>2</v>
+      </c>
+      <c r="E111" t="s">
+        <v>213</v>
+      </c>
+      <c r="F111" t="s">
+        <v>219</v>
+      </c>
+      <c r="G111" t="s">
+        <v>225</v>
+      </c>
+      <c r="H111" t="s">
+        <v>231</v>
+      </c>
+      <c r="K111">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11">
+      <c r="A112" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B112" t="s">
+        <v>127</v>
+      </c>
+      <c r="C112" t="s">
+        <v>209</v>
+      </c>
+      <c r="D112">
+        <v>2</v>
+      </c>
+      <c r="E112" t="s">
+        <v>213</v>
+      </c>
+      <c r="F112" t="s">
+        <v>220</v>
+      </c>
+      <c r="G112" t="s">
+        <v>225</v>
+      </c>
+      <c r="H112" t="s">
+        <v>232</v>
+      </c>
+      <c r="K112">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11">
+      <c r="A113" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B113" t="s">
+        <v>127</v>
+      </c>
+      <c r="C113" t="s">
+        <v>210</v>
+      </c>
+      <c r="D113">
+        <v>2</v>
+      </c>
+      <c r="E113" t="s">
+        <v>213</v>
+      </c>
+      <c r="F113" t="s">
+        <v>221</v>
+      </c>
+      <c r="G113" t="s">
+        <v>226</v>
+      </c>
+      <c r="H113" t="s">
+        <v>233</v>
+      </c>
+      <c r="K113">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11">
+      <c r="A114" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B114" t="s">
+        <v>127</v>
+      </c>
+      <c r="C114" t="s">
+        <v>211</v>
+      </c>
+      <c r="D114">
+        <v>2</v>
+      </c>
+      <c r="E114" t="s">
+        <v>213</v>
+      </c>
+      <c r="F114" t="s">
+        <v>222</v>
+      </c>
+      <c r="G114" t="s">
+        <v>225</v>
+      </c>
+      <c r="H114" t="s">
+        <v>234</v>
+      </c>
+      <c r="K114">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11">
+      <c r="A115" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B115" t="s">
+        <v>127</v>
+      </c>
+      <c r="C115" t="s">
+        <v>212</v>
+      </c>
+      <c r="D115">
+        <v>2</v>
+      </c>
+      <c r="E115" t="s">
+        <v>213</v>
+      </c>
+      <c r="F115" t="s">
+        <v>220</v>
+      </c>
+      <c r="G115" t="s">
+        <v>226</v>
+      </c>
+      <c r="H115" t="s">
+        <v>235</v>
+      </c>
+      <c r="K115">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/历史成交记录.xlsx
+++ b/历史成交记录.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="227">
   <si>
     <t>symbol</t>
   </si>
@@ -659,69 +659,6 @@
   </si>
   <si>
     <t>buy</t>
-  </si>
-  <si>
-    <t>19200</t>
-  </si>
-  <si>
-    <t>20000</t>
-  </si>
-  <si>
-    <t>19800</t>
-  </si>
-  <si>
-    <t>20300</t>
-  </si>
-  <si>
-    <t>20200</t>
-  </si>
-  <si>
-    <t>21000</t>
-  </si>
-  <si>
-    <t>20800</t>
-  </si>
-  <si>
-    <t>20600</t>
-  </si>
-  <si>
-    <t>0.5</t>
-  </si>
-  <si>
-    <t>0.8</t>
-  </si>
-  <si>
-    <t>0.4</t>
-  </si>
-  <si>
-    <t>0.3</t>
-  </si>
-  <si>
-    <t>9600</t>
-  </si>
-  <si>
-    <t>10000</t>
-  </si>
-  <si>
-    <t>15840</t>
-  </si>
-  <si>
-    <t>8120</t>
-  </si>
-  <si>
-    <t>8080</t>
-  </si>
-  <si>
-    <t>8400</t>
-  </si>
-  <si>
-    <t>6240</t>
-  </si>
-  <si>
-    <t>8240</t>
-  </si>
-  <si>
-    <t>6300</t>
   </si>
   <si>
     <t>order_sn</t>
@@ -1307,10 +1244,10 @@
         <v>3</v>
       </c>
       <c r="M6" t="s">
-        <v>236</v>
+        <v>215</v>
       </c>
       <c r="N6" t="s">
-        <v>237</v>
+        <v>216</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -1345,7 +1282,7 @@
         <v>0</v>
       </c>
       <c r="N7" t="s">
-        <v>238</v>
+        <v>217</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -1380,7 +1317,7 @@
         <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>239</v>
+        <v>218</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -1415,7 +1352,7 @@
         <v>2</v>
       </c>
       <c r="N9" t="s">
-        <v>240</v>
+        <v>219</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -1450,7 +1387,7 @@
         <v>3</v>
       </c>
       <c r="N10" t="s">
-        <v>241</v>
+        <v>220</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -1485,7 +1422,7 @@
         <v>4</v>
       </c>
       <c r="N11" t="s">
-        <v>242</v>
+        <v>221</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -1520,7 +1457,7 @@
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>243</v>
+        <v>222</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -1555,7 +1492,7 @@
         <v>6</v>
       </c>
       <c r="N13" t="s">
-        <v>244</v>
+        <v>223</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -1590,7 +1527,7 @@
         <v>7</v>
       </c>
       <c r="N14" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -1625,7 +1562,7 @@
         <v>8</v>
       </c>
       <c r="N15" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -1660,7 +1597,7 @@
         <v>9</v>
       </c>
       <c r="N16" t="s">
-        <v>247</v>
+        <v>226</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -4260,14 +4197,14 @@
       <c r="E106" t="s">
         <v>214</v>
       </c>
-      <c r="F106" t="s">
-        <v>215</v>
-      </c>
-      <c r="G106" t="s">
-        <v>223</v>
-      </c>
-      <c r="H106" t="s">
-        <v>227</v>
+      <c r="F106">
+        <v>19200</v>
+      </c>
+      <c r="G106">
+        <v>0.5</v>
+      </c>
+      <c r="H106">
+        <v>9600</v>
       </c>
       <c r="K106">
         <v>3</v>
@@ -4289,14 +4226,14 @@
       <c r="E107" t="s">
         <v>214</v>
       </c>
-      <c r="F107" t="s">
-        <v>216</v>
-      </c>
-      <c r="G107" t="s">
-        <v>223</v>
-      </c>
-      <c r="H107" t="s">
-        <v>228</v>
+      <c r="F107">
+        <v>20000</v>
+      </c>
+      <c r="G107">
+        <v>0.5</v>
+      </c>
+      <c r="H107">
+        <v>10000</v>
       </c>
       <c r="K107">
         <v>3</v>
@@ -4318,14 +4255,14 @@
       <c r="E108" t="s">
         <v>213</v>
       </c>
-      <c r="F108" t="s">
-        <v>216</v>
-      </c>
-      <c r="G108" t="s">
-        <v>223</v>
-      </c>
-      <c r="H108" t="s">
-        <v>228</v>
+      <c r="F108">
+        <v>20000</v>
+      </c>
+      <c r="G108">
+        <v>0.5</v>
+      </c>
+      <c r="H108">
+        <v>10000</v>
       </c>
       <c r="K108">
         <v>3</v>
@@ -4347,14 +4284,14 @@
       <c r="E109" t="s">
         <v>213</v>
       </c>
-      <c r="F109" t="s">
-        <v>217</v>
-      </c>
-      <c r="G109" t="s">
-        <v>224</v>
-      </c>
-      <c r="H109" t="s">
-        <v>229</v>
+      <c r="F109">
+        <v>19800</v>
+      </c>
+      <c r="G109">
+        <v>0.8</v>
+      </c>
+      <c r="H109">
+        <v>15840</v>
       </c>
       <c r="K109">
         <v>3</v>
@@ -4376,14 +4313,14 @@
       <c r="E110" t="s">
         <v>213</v>
       </c>
-      <c r="F110" t="s">
-        <v>218</v>
-      </c>
-      <c r="G110" t="s">
-        <v>225</v>
-      </c>
-      <c r="H110" t="s">
-        <v>230</v>
+      <c r="F110">
+        <v>20300</v>
+      </c>
+      <c r="G110">
+        <v>0.4</v>
+      </c>
+      <c r="H110">
+        <v>8120</v>
       </c>
       <c r="K110">
         <v>3</v>
@@ -4405,14 +4342,14 @@
       <c r="E111" t="s">
         <v>213</v>
       </c>
-      <c r="F111" t="s">
-        <v>219</v>
-      </c>
-      <c r="G111" t="s">
-        <v>225</v>
-      </c>
-      <c r="H111" t="s">
-        <v>231</v>
+      <c r="F111">
+        <v>20200</v>
+      </c>
+      <c r="G111">
+        <v>0.4</v>
+      </c>
+      <c r="H111">
+        <v>8080</v>
       </c>
       <c r="K111">
         <v>3</v>
@@ -4434,14 +4371,14 @@
       <c r="E112" t="s">
         <v>213</v>
       </c>
-      <c r="F112" t="s">
-        <v>220</v>
-      </c>
-      <c r="G112" t="s">
-        <v>225</v>
-      </c>
-      <c r="H112" t="s">
-        <v>232</v>
+      <c r="F112">
+        <v>21000</v>
+      </c>
+      <c r="G112">
+        <v>0.4</v>
+      </c>
+      <c r="H112">
+        <v>8400</v>
       </c>
       <c r="K112">
         <v>6</v>
@@ -4463,14 +4400,14 @@
       <c r="E113" t="s">
         <v>213</v>
       </c>
-      <c r="F113" t="s">
-        <v>221</v>
-      </c>
-      <c r="G113" t="s">
-        <v>226</v>
-      </c>
-      <c r="H113" t="s">
-        <v>233</v>
+      <c r="F113">
+        <v>20800</v>
+      </c>
+      <c r="G113">
+        <v>0.3</v>
+      </c>
+      <c r="H113">
+        <v>6240</v>
       </c>
       <c r="K113">
         <v>3</v>
@@ -4492,14 +4429,14 @@
       <c r="E114" t="s">
         <v>213</v>
       </c>
-      <c r="F114" t="s">
-        <v>222</v>
-      </c>
-      <c r="G114" t="s">
-        <v>225</v>
-      </c>
-      <c r="H114" t="s">
-        <v>234</v>
+      <c r="F114">
+        <v>20600</v>
+      </c>
+      <c r="G114">
+        <v>0.4</v>
+      </c>
+      <c r="H114">
+        <v>8240</v>
       </c>
       <c r="K114">
         <v>3</v>
@@ -4521,14 +4458,14 @@
       <c r="E115" t="s">
         <v>213</v>
       </c>
-      <c r="F115" t="s">
-        <v>220</v>
-      </c>
-      <c r="G115" t="s">
-        <v>226</v>
-      </c>
-      <c r="H115" t="s">
-        <v>235</v>
+      <c r="F115">
+        <v>21000</v>
+      </c>
+      <c r="G115">
+        <v>0.3</v>
+      </c>
+      <c r="H115">
+        <v>6300</v>
       </c>
       <c r="K115">
         <v>6</v>
